--- a/FashionShopNew/src/main/webapp/resources/excel/product_dump.xlsx
+++ b/FashionShopNew/src/main/webapp/resources/excel/product_dump.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>subcategory_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,14 @@
   </si>
   <si>
     <t>XS,S,M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -578,7 +586,7 @@
     <col min="7" max="7" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,8 +608,11 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -623,8 +634,11 @@
       <c r="G2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -646,8 +660,11 @@
       <c r="G3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -669,8 +686,11 @@
       <c r="G4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -692,8 +712,11 @@
       <c r="G5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -715,8 +738,11 @@
       <c r="G6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>3</v>
       </c>
@@ -738,8 +764,11 @@
       <c r="G7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>4</v>
       </c>
@@ -761,8 +790,11 @@
       <c r="G8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>4</v>
       </c>
@@ -783,6 +815,9 @@
       </c>
       <c r="G9" t="s">
         <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
